--- a/서울시 종로구 관광데이터 정보 (한국어+영어).xlsx
+++ b/서울시 종로구 관광데이터 정보 (한국어+영어).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\commo\OneDrive\바탕 화면\번역_데이터 전처리\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\commo\OneDrive\바탕 화면\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -6661,23 +6661,6 @@
   </si>
   <si>
     <t>종로구 성균관로4길 45</t>
-  </si>
-  <si>
-    <r>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>좌표</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6713,6 +6696,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>(</t>
@@ -6733,6 +6717,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
@@ -6756,6 +6741,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>(</t>
@@ -6776,6 +6762,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
@@ -6799,6 +6786,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>(</t>
@@ -6819,18 +6807,23 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>X좌표</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -6841,12 +6834,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -6861,13 +6856,6 @@
       <name val="Arial"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -6891,11 +6879,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -7124,23 +7111,23 @@
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>2215</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2216</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2217</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2218</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>2218</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2214</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2215</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">

--- a/서울시 종로구 관광데이터 정보 (한국어+영어).xlsx
+++ b/서울시 종로구 관광데이터 정보 (한국어+영어).xlsx
@@ -6680,16 +6680,12 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>X좌표</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>장소명</t>
+      <t>명칭</t>
     </r>
     <r>
       <rPr>
@@ -6726,15 +6722,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>장소명</t>
+      <t>명칭</t>
     </r>
     <r>
       <rPr>
@@ -6771,15 +6759,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>장소명</t>
+      <t>명칭</t>
     </r>
     <r>
       <rPr>
@@ -6812,10 +6792,6 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>X좌표</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -7105,26 +7081,26 @@
   <dimension ref="A1:F811"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>2218</v>
+        <v>2215</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2214</v>
